--- a/excel_templates/L1005.xlsx
+++ b/excel_templates/L1005.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ligangzhou/Money/rust/erp-api/excel_templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02646387-FCFB-9442-9DB4-B763978E082F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView xWindow="13520" yWindow="760" windowWidth="18540" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,6 +46,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交货日期:</t>
@@ -49,6 +56,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2023/7/10</t>
@@ -209,15 +217,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,390 +232,75 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -680,433 +369,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1122,13 +522,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="1678090826469"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="1678090826469">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1160,13 +566,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="1678091016591"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="1678091016591">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1198,13 +610,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="1678091055312"/>
+        <xdr:cNvPr id="4" name="图片 3" descr="1678091055312">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1236,13 +654,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr="1678091151056"/>
+        <xdr:cNvPr id="5" name="图片 4" descr="1678091151056">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1274,13 +698,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5" descr="1678091184195"/>
+        <xdr:cNvPr id="6" name="图片 5" descr="1678091184195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1312,13 +742,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6" descr="1678091240179"/>
+        <xdr:cNvPr id="7" name="图片 6" descr="1678091240179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1350,13 +786,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7" descr="1678091266943"/>
+        <xdr:cNvPr id="8" name="图片 7" descr="1678091266943">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1388,13 +830,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8" descr="1678091300877"/>
+        <xdr:cNvPr id="9" name="图片 8" descr="1678091300877">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1426,13 +874,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9" descr="1678091357683"/>
+        <xdr:cNvPr id="10" name="图片 9" descr="1678091357683">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1464,13 +918,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1506,13 +966,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 2"/>
+        <xdr:cNvPr id="12" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1548,13 +1014,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 2"/>
+        <xdr:cNvPr id="13" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1590,13 +1062,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 2"/>
+        <xdr:cNvPr id="14" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1632,13 +1110,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 2"/>
+        <xdr:cNvPr id="15" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1674,13 +1158,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 2"/>
+        <xdr:cNvPr id="16" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1716,13 +1206,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 2"/>
+        <xdr:cNvPr id="17" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1758,13 +1254,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 2"/>
+        <xdr:cNvPr id="18" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1800,13 +1302,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 2"/>
+        <xdr:cNvPr id="19" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1842,13 +1350,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 2"/>
+        <xdr:cNvPr id="20" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1884,13 +1398,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 2"/>
+        <xdr:cNvPr id="21" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2195,926 +1715,918 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.225" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="7.70833333333333" style="6" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="5" customWidth="1"/>
+    <col min="10" max="11" width="7.6640625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="5" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25.5" spans="1:12">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" ht="26">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A3" s="2"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" customHeight="1">
+      <c r="B3" s="11"/>
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A4" s="2"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" customHeight="1">
+      <c r="B4" s="11"/>
+      <c r="C4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A5" s="2"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="14" t="s">
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1">
+      <c r="B5" s="11"/>
+      <c r="C5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:12">
-      <c r="A6" s="17" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="1:12" ht="36" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A7" s="19">
+    <row r="7" spans="1:12" ht="54" customHeight="1">
+      <c r="A7" s="26">
         <v>1</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="16">
         <v>200</v>
       </c>
-      <c r="I7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="24" t="s">
+      <c r="I7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" ht="54" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="24" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="16">
         <v>200</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A9" s="30"/>
+      <c r="I8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="54" customHeight="1">
+      <c r="A9" s="28"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="24" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="16">
         <v>200</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A10" s="19">
+      <c r="I9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" ht="54" customHeight="1">
+      <c r="A10" s="26">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="16">
         <v>200</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="24" t="s">
+      <c r="I10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" ht="54" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="24" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="16">
         <v>200</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A12" s="30"/>
+      <c r="I11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" ht="54" customHeight="1">
+      <c r="A12" s="28"/>
       <c r="B12" s="31"/>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="24" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="16">
         <v>200</v>
       </c>
-      <c r="I12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A13" s="19">
+      <c r="I12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" ht="54" customHeight="1">
+      <c r="A13" s="26">
         <v>3</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="16">
         <v>200</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="24" t="s">
+      <c r="I13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" ht="54" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="24" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="16">
         <v>200</v>
       </c>
-      <c r="I14" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A15" s="30"/>
+      <c r="I14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" ht="54" customHeight="1">
+      <c r="A15" s="28"/>
       <c r="B15" s="31"/>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="24" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="16">
         <v>200</v>
       </c>
-      <c r="I15" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A16" s="19">
+      <c r="I15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" ht="54" customHeight="1">
+      <c r="A16" s="26">
         <v>4</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23" t="s">
+      <c r="D16" s="32"/>
+      <c r="E16" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="16">
         <v>200</v>
       </c>
-      <c r="I16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="21" t="s">
+      <c r="I16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:12" ht="54" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="24" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="16">
         <v>200</v>
       </c>
-      <c r="I17" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A18" s="30"/>
+      <c r="I17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" ht="54" customHeight="1">
+      <c r="A18" s="28"/>
       <c r="B18" s="31"/>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="24" t="s">
+      <c r="D18" s="33"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="16">
         <v>200</v>
       </c>
-      <c r="I18" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A19" s="19">
+      <c r="I18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" ht="54" customHeight="1">
+      <c r="A19" s="26">
         <v>5</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="16">
         <v>200</v>
       </c>
-      <c r="I19" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="24" t="s">
+      <c r="I19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" ht="54" customHeight="1">
+      <c r="A20" s="27"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="24" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="16">
         <v>200</v>
       </c>
-      <c r="I20" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A21" s="30"/>
+      <c r="I20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" ht="54" customHeight="1">
+      <c r="A21" s="28"/>
       <c r="B21" s="31"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="24" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="16">
         <v>200</v>
       </c>
-      <c r="I21" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A22" s="19">
+      <c r="I21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" ht="54" customHeight="1">
+      <c r="A22" s="26">
         <v>6</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="16">
         <v>200</v>
       </c>
-      <c r="I22" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="24" t="s">
+      <c r="I22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" ht="54" customHeight="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="24" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="16">
         <v>200</v>
       </c>
-      <c r="I23" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A24" s="30"/>
+      <c r="I23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="1:12" ht="54" customHeight="1">
+      <c r="A24" s="28"/>
       <c r="B24" s="31"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="24" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="16">
         <v>200</v>
       </c>
-      <c r="I24" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A25" s="19">
+      <c r="I24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:12" ht="54" customHeight="1">
+      <c r="A25" s="26">
         <v>7</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="16">
         <v>200</v>
       </c>
-      <c r="I25" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="24" t="s">
+      <c r="I25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:12" ht="54" customHeight="1">
+      <c r="A26" s="27"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="24" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="16">
         <v>200</v>
       </c>
-      <c r="I26" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A27" s="30"/>
+      <c r="I26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="1:12" ht="54" customHeight="1">
+      <c r="A27" s="28"/>
       <c r="B27" s="31"/>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="24" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="16">
         <v>200</v>
       </c>
-      <c r="I27" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A28" s="19">
+      <c r="I27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="1:12" ht="54" customHeight="1">
+      <c r="A28" s="26">
         <v>8</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23" t="s">
+      <c r="D28" s="32"/>
+      <c r="E28" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="16">
         <v>200</v>
       </c>
-      <c r="I28" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="24" t="s">
+      <c r="I28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" ht="54" customHeight="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="24" t="s">
+      <c r="D29" s="33"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="16">
         <v>200</v>
       </c>
-      <c r="I29" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A30" s="30"/>
+      <c r="I29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" ht="54" customHeight="1">
+      <c r="A30" s="28"/>
       <c r="B30" s="31"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="24" t="s">
+      <c r="D30" s="33"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="16">
         <v>200</v>
       </c>
-      <c r="I30" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A31" s="19">
+      <c r="I30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" ht="54" customHeight="1">
+      <c r="A31" s="26">
         <v>9</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="16">
         <v>200</v>
       </c>
-      <c r="I31" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="24" t="s">
+      <c r="I31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" ht="54" customHeight="1">
+      <c r="A32" s="27"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="24" t="s">
+      <c r="D32" s="33"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="16">
         <v>200</v>
       </c>
-      <c r="I32" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A33" s="30"/>
+      <c r="I32" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:12" ht="54" customHeight="1">
+      <c r="A33" s="28"/>
       <c r="B33" s="31"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="24" t="s">
+      <c r="D33" s="33"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="16">
         <v>200</v>
       </c>
-      <c r="I33" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A34" s="19">
+      <c r="I33" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:12" ht="54" customHeight="1">
+      <c r="A34" s="26">
         <v>10</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="24" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="16">
         <v>150</v>
       </c>
-      <c r="I34" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="24"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="24" t="s">
+      <c r="I34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="1:12" ht="54" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24" t="s">
+      <c r="D35" s="34"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="16">
         <v>150</v>
       </c>
-      <c r="I35" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="24"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="54" customHeight="1" spans="1:12">
-      <c r="A36" s="30"/>
+      <c r="I35" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="15"/>
+    </row>
+    <row r="36" spans="1:12" ht="54" customHeight="1">
+      <c r="A36" s="28"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24" t="s">
+      <c r="D36" s="34"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="16">
         <v>150</v>
       </c>
-      <c r="I36" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="24"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:12">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="5"/>
+      <c r="I36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D28:D30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="B7:B9"/>
@@ -3127,74 +2639,59 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:E36"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:L4"/>
   </mergeCells>
-  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="600"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75138888888888899" bottom="0.75138888888888899" header="0.29861111111111099" footer="0.29861111111111099"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>